--- a/Shift Code Templates/EM_template.xlsx
+++ b/Shift Code Templates/EM_template.xlsx
@@ -20,6 +20,7 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="Times New Roman" svg:font-family="'Times New Roman'" style:font-family-generic="roman" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Calibri" svg:font-family="Calibri" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS" svg:font-family="'Arial Unicode MS'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -80,61 +81,61 @@
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
     <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
       <style:table-cell-properties fo:background-color="#000000" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
@@ -182,9 +183,7 @@
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
     <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+      <style:text-properties fo:language="en" fo:country="SG" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:language-asian="zh" style:country-asian="CN" style:language-complex="hi" style:country-complex="IN" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
     <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
@@ -215,19 +214,19 @@
       </table:calculation-settings>
       <table:table table:name="Sheet1" table:style-name="ta4" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce5"/>
         <table:table-column table:style-name="co2" table:default-cell-style-name="ce16"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co4" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co6" table:number-columns-repeated="9" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co6" table:number-columns-repeated="9" table:default-cell-style-name="ce5"/>
         <table:table-column table:style-name="co6" table:default-cell-style-name="ce27"/>
-        <table:table-column table:style-name="co6" table:number-columns-repeated="6" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co4" table:number-columns-repeated="1004" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co6" table:number-columns-repeated="6" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="1004" table:default-cell-style-name="ce5"/>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>PETC</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce6"/>
           <table:table-cell table:style-name="ce17"/>
           <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:style-name="ce23"/>
@@ -244,7 +243,7 @@
           <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>Shift Code Monitoring </text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce6"/>
           <table:table-cell table:style-name="ce17"/>
           <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:style-name="ce23"/>
@@ -261,7 +260,7 @@
           <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>Attendance Period: Sept 16-30,2011</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce6"/>
           <table:table-cell table:style-name="ce17"/>
           <table:table-cell table:style-name="ce20"/>
           <table:table-cell table:style-name="ce23"/>
@@ -276,7 +275,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce9"/>
+          <table:table-cell table:style-name="ce6"/>
           <table:table-cell table:style-name="ce17"/>
           <table:table-cell table:style-name="ce19"/>
           <table:table-cell table:style-name="ce23"/>
@@ -291,7 +290,7 @@
         </table:table-row>
         <table:table-row table:style-name="ro3">
           <table:table-cell table:style-name="ce2"/>
-          <table:table-cell table:style-name="ce10"/>
+          <table:table-cell table:style-name="ce7"/>
           <table:table-cell table:style-name="ce18"/>
           <table:table-cell table:style-name="ce21" table:number-columns-repeated="17"/>
           <table:table-cell table:style-name="ce28" table:number-columns-repeated="1004"/>
@@ -300,7 +299,7 @@
           <table:table-cell table:style-name="ce3" office:value-type="string">
             <text:p>Badge no.</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce11" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+          <table:table-cell table:style-name="ce8" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
             <text:p>NAMES</text:p>
           </table:table-cell>
           <table:covered-table-cell table:style-name="ce3"/>
@@ -309,508 +308,511 @@
           <table:table-cell table:style-name="ce29" table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13863">
-            <text:p>13863</text:p>
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="67163">
+            <text:p>67163</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Abbott</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Corbin</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce25"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="93409">
+            <text:p>93409</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Montoya</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Derek</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce25"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="91222">
+            <text:p>91222</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Mcdaniel</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Arturo</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce25"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="70966">
+            <text:p>70966</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Kidd</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Ashley</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="94739">
+            <text:p>94739</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Costa</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Casey</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="28112">
+            <text:p>28112</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Shepard</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Adan</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="26018">
+            <text:p>26018</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Hansen</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Braedon</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="43680">
+            <text:p>43680</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Stanton</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Abel</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="5664">
+            <text:p>5664</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Herrera</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Urijah</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="11875">
+            <text:p>11875</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Murillo</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Abby</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="95454">
+            <text:p>95454</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Berry</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Paula</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="27216">
+            <text:p>27216</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Chase</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Jaidyn</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="76140">
+            <text:p>76140</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Kramer</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Slade</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="52607">
+            <text:p>52607</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Castillo</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Isabela</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="66477">
+            <text:p>66477</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Butler</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="string">
+            <text:p>Megan</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="10519">
+            <text:p>10519</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Swanson</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Corinne</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce30" table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="33775">
+            <text:p>33775</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>Richmond</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>Chandler</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="79330">
+            <text:p>79330</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>Pierce</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>Cristofer</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="88687">
+            <text:p>88687</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Hardy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Ruth</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="89938">
+            <text:p>89938</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>Harmon</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
+            <text:p>Tyson</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="98760">
+            <text:p>98760</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Roy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Athena</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="61178">
+            <text:p>61178</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Willis</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Maribel</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="79958">
+            <text:p>79958</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Ewing</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
+            <text:p>Dante</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="72491">
+            <text:p>72491</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Abbott</text:p>
+            <text:p>Moon</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Corbin</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15023">
-            <text:p>15023</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Montoya</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Derek</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="9810">
-            <text:p>9810</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Mcdaniel</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Arturo</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13981">
-            <text:p>13981</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Kidd</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Ashley</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13983">
-            <text:p>13983</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Costa</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Casey</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="4863">
-            <text:p>4863</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Shepard</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Adan</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="11599">
-            <text:p>11599</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Hansen</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Braedon</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15183">
-            <text:p>15183</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Stanton</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Abel</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="11552">
-            <text:p>11552</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Herrera</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Urijah</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="15246">
-            <text:p>15246</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Murillo</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Abby</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15284">
-            <text:p>15284</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Berry</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Paula</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="9139">
-            <text:p>9139</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Chase</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Jaidyn</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15054">
-            <text:p>15054</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Kramer</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Slade</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13841">
-            <text:p>13841</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Castillo</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Isabela</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15204">
-            <text:p>15204</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Butler</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Megan</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce7" office:value-type="float" office:value="15055">
-            <text:p>15055</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Swanson</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Corinne</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce30" table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15242">
-            <text:p>15242</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
-            <text:p>Richmond</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
-            <text:p>Chandler</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13020">
-            <text:p>13020</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
-            <text:p>Pierce</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
-            <text:p>Cristofer</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="10346">
-            <text:p>10346</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Hardy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Ruth</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="13244">
-            <text:p>13244</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
-            <text:p>Harmon</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
-            <text:p>Tyson</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15185">
-            <text:p>15185</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Roy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Athena</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="444">
-            <text:p>444</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Willis</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Maribel</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13851">
-            <text:p>13851</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Ewing</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
-            <text:p>Dante</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="11282">
-            <text:p>11282</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="string">
-            <text:p>Moon</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce15" office:value-type="string">
             <text:p>Greyson</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13862">
-            <text:p>13862</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="51999">
+            <text:p>51999</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Patton</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Holly</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="7725">
-            <text:p>7725</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="32515">
+            <text:p>32515</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Cummings</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Patricia</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="8525">
-            <text:p>8525</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="47768">
+            <text:p>47768</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Graves</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Gabriela</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="15148">
-            <text:p>15148</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="66834">
+            <text:p>66834</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11" office:value-type="string">
             <text:p>Blackburn</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce14" office:value-type="string">
+          <table:table-cell table:style-name="ce11" office:value-type="string">
             <text:p>Yosef</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15375">
-            <text:p>15375</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="99661">
+            <text:p>99661</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Grimes</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Georgia</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13861">
-            <text:p>13861</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="48958">
+            <text:p>48958</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Kim</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Jasper</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15235">
-            <text:p>15235</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="8746">
+            <text:p>8746</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Winters</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Shyann</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13555">
-            <text:p>13555</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="34904">
+            <text:p>34904</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Joyce</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Keaton</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13642">
-            <text:p>13642</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="75631">
+            <text:p>75631</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Yang</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Steve</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15230">
-            <text:p>15230</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="64878">
+            <text:p>64878</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Esparza</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Riley</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
-          <table:table-cell table:number-columns-repeated="1003"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="13037">
-            <text:p>13037</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
+          <table:table-cell table:number-columns-repeated="1003"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="26044">
+            <text:p>26044</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Summers</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce13" office:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string">
             <text:p>Raven</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="17"/>
           <table:table-cell table:number-columns-repeated="1003"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce13" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
         <table:table-row table:style-name="ro2" table:number-rows-repeated="6">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce14" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell/>
-          <table:table-cell table:style-name="ce5" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce15" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1021"/>
         </table:table-row>
         <table:table-row table:style-name="ro2" table:number-rows-repeated="1048526">
@@ -846,11 +848,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2018-11-05T20:05:34.41</dc:date>
+    <dc:date>2018-11-25T10:22:39.40</dc:date>
     <dc:creator>Jason Marc Alegado</dc:creator>
     <meta:generator>OpenOffice/4.0.1$Win32 OpenOffice.org_project/401m5$Build-9714</meta:generator>
-    <meta:editing-duration>PT19S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
+    <meta:editing-duration>PT9M6S</meta:editing-duration>
+    <meta:editing-cycles>4</meta:editing-cycles>
     <meta:document-statistic meta:table-count="3" meta:cell-count="110" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
@@ -869,8 +871,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">40</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">71</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -879,9 +881,9 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">4</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">41</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">90</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Sheet2">
@@ -897,7 +899,7 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">90</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
             <config:config-item-map-entry config:name="Sheet3">
@@ -913,14 +915,14 @@
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">90</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
           <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">793</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">90</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -977,6 +979,7 @@
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" office:version="1.2">
   <office:font-face-decls>
+    <style:font-face style:name="Times New Roman" svg:font-family="'Times New Roman'" style:font-family-generic="roman" style:font-pitch="variable"/>
     <style:font-face style:name="Arial" svg:font-family="Arial" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Calibri" svg:font-family="Calibri" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="Arial Unicode MS" svg:font-family="'Arial Unicode MS'" style:font-family-generic="system" style:font-pitch="variable"/>
@@ -1203,9 +1206,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2018-11-05">11/05/2018</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2018-11-25">11/25/2018</text:date>
             , 
-            <text:time>20:05:34</text:time>
+            <text:time>10:22:39</text:time>
           </text:p>
         </style:region-right>
       </style:header>
